--- a/data/hotels_by_city/Dallas/Dallas_shard_457.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_457.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="84">
   <si>
     <t>STR#</t>
   </si>
@@ -144,6 +144,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Hutsite</t>
+  </si>
+  <si>
     <t>06/14/2018</t>
   </si>
   <si>
@@ -168,6 +171,9 @@
     <t xml:space="preserve">Basic roof over your head, the tax return refund applies to a weekly discounted rate, you get what you pay for; no perks, poor appliances and uncomfortable furnishings. Dish cable is available with limited channels that are basically free with limited paid premium channels. The Carrolton location out-beat Lewisville’s location to the general upkeep and property landscaping and security services for the complex that includes the staff and how they treat people in the Lewisville office. This hotel rates as a must do for financial reasons than by personal preference. </t>
   </si>
   <si>
+    <t>ESSYNZE S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d226223-r524479729-InTown_Suites_Carrollton_Addison-Carrollton_Texas.html</t>
   </si>
   <si>
@@ -192,6 +198,9 @@
     <t>I had the most awful experience my co worker got bit up by bes bugs and fleas we took pictures and showed it to the General Manager Joni Hereing and she was not empathetic like it was her way of living. We bleached the room down and alcoholed the beds, went to the laundry mat washed all the sheets and comforters twice. We lifted the bed and there were bugs and bug debris. They sent someone to check after we did all this due to the fact that they are closes Sat-Sun, So "Hello" quite naturally it would not be anything there. My Co-Worker complained and asked well could she be compensated and then thats when they kicked us out saying someone booked the room for the month. We went to another location on W. Trinity which is the best one and they could not rent us a room due to the incident. Make in worst ppl are smoking in the stairwell that smell like piss and they allow dogs in all the rooms. Its pretty sad how Management has allowed this establishment to be run down they need to fire the whole staff and start from scatch!!More</t>
   </si>
   <si>
+    <t>Tiffany D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d226223-r505273329-InTown_Suites_Carrollton_Addison-Carrollton_Texas.html</t>
   </si>
   <si>
@@ -216,6 +225,9 @@
     <t>My husband had work to do in the metroplex for a week and InTown Suites was the cheapest option for him, my 18-year-old stepson, my 3-year-old daughter, and myself. I went to their website, entered in the date we wanted to stay, and found that the one we wanted in Plano wasn't available, so we chose the one in Carrollton, on Westgrove. We initially requested a regular queen room. but then a few minutes later I saw a queen DELUXE room, so I also reserved that. It didn't ask for payment info, just contact info. We were immediately sent an email confirming our reservation. Inside the email we were given a number to call or email address to email if we needed to change or cancel our reservation. I immediately sent an email to the address specified with all the info needed requesting to cancel the one reservation but keep the other. I also asked questions about our room, since nowhere on the website did it specify exactly what we could expect in the room. I was mainly wanting to know square footage and whether or not the kitchen included utensils and cookware like some extended stay hotels offer. I also wanted to know what the difference was between a Queen and Queen Deluxe. After 2 days of no response, I emailed again. We never did receive an email back from them, which is very disappointing to me. In today's...My husband had work to do in the metroplex for a week and InTown Suites was the cheapest option for him, my 18-year-old stepson, my 3-year-old daughter, and myself. I went to their website, entered in the date we wanted to stay, and found that the one we wanted in Plano wasn't available, so we chose the one in Carrollton, on Westgrove. We initially requested a regular queen room. but then a few minutes later I saw a queen DELUXE room, so I also reserved that. It didn't ask for payment info, just contact info. We were immediately sent an email confirming our reservation. Inside the email we were given a number to call or email address to email if we needed to change or cancel our reservation. I immediately sent an email to the address specified with all the info needed requesting to cancel the one reservation but keep the other. I also asked questions about our room, since nowhere on the website did it specify exactly what we could expect in the room. I was mainly wanting to know square footage and whether or not the kitchen included utensils and cookware like some extended stay hotels offer. I also wanted to know what the difference was between a Queen and Queen Deluxe. After 2 days of no response, I emailed again. We never did receive an email back from them, which is very disappointing to me. In today's day and age where most people communicate electronically, and the fact they gave their email address as an option for contact, there is no excuse for the lack of response. My husband finally called and spoke with someone, who said (1) she did not know the square footage of the rooms and (2) they saw we had made 2 reservations so they just cancelled one of them, and the one they cancelled was the last reservation we'd made, the one we wanted. Mistake number two. Why wouldn't they have called us first and asked which one to cancel??! They had our number. Absolutely no excuse for that. At this point, I was put off to the point I didn't want to stay there, but my husband insisted since it was the cheapest. Actually, Budget Suites was a bit cheaper, but I didn't like the poor design of their website, the fact I received an error message when trying to contact them through their form online, and the lady who answered the phone when my husband called was very brief with him and at first unwilling to give us a price. So..InTown Suites it was! I checked one more time the night before our reservation and saw a 2 full bed room had opened up (which is what we really wanted), so I reserved it. Their office was already closed, so I knew they wouldn't see it until they returned the next day.The reservation email stated that our room reservation would be held until 4:00 PM the date of arrival, and that if we couldn’t check-in before 4:00PM, we must call the Property to hold the reservation. The email also stated that normal check-in business hours were generally Monday - Saturday 11AM to 7PM. I wanted to arrive right at 11 AM when they opened so they didn't give our room to anyone else. After a 2.5 hour drive with a toddler, I didn't want to have to stress about having to find another place to stay. However, we ran into some car trouble and knew we wouldn't arrive until after noon, so I called them around 10:30 AM that day (Monday) and left a message just stating we were on our way and would definitely arrive before 4 PM. I also gave my phone number to call if they had any questions.We arrived at 12:45 PM. I immediately liked the exterior look of the property. You could tell it had been recently remodeled. It looked nice. I liked all the trees in their "courtyard area." The place seemed to have a warm, welcoming feel to it. There was plenty of parking in the front and back.We went inside the office. The man working behind the desk (a friendly black gentleman with glasses..I believe it said "Property Manager" on his name tag) stated he saw 3 reservations (so they hadn't actually cancelled the one they said they had cancelled??). I said I wanted the one with 2 full beds. He stated the people who had been staying in it were late checking out, so it would be about 45 minutes to an hour before it would be ready. I could have swore he said housekeeping was working on it right then. We walked next door to Braum's for an hour, then returned at 1:45 PM. The same gentleman apologized and stated it still wasn't ready, but that they were working on it and there were certain things they needed to do to the room to bring it up to standard (or something along those lines), and it would be another 20 minutes or so. We waited outside the office about 5-10 minutes when the same gentleman stepped out and said housekeeping was working on it now and it should be ready in 15-20 minutes. Seconds before that we had seen 2 housekeeping ladies walk by with a cleaning cart. So...they hadn't actually been working on our room at all..not until that point. I'm not sure why we couldn't have been told from the get-go that our room would not be available until it was cleaned, and then we could have been asked for a good contact number where we could have been called as soon as it was ready. That way we could have gone and run some errands or something, rather than waiting around the property for 1.5 hour. Also, it would have been nice if someone could have called us and let us know the status.  They could have let us know they received my voice message that morning and that our room should be available such and such o'clock. That way we wouldn't have rushed there. So....just be aware when staying at this property, your room may or may not be available when you arrive. The gentleman also stated that once housekeeping was finished cleaning the room, we were to go look at the room to make sure it was what we wanted before going back to him to pay. We waited about 20 minutes, saw they had finished cleaning, then went back to the office. The gentleman had me give him my driver's license while we went to the room to look (standard protocol). We took a look at the room, made sure everything worked, then went back to the office to pay. You also have to provide them with the vehicle that will be staying on their property, as well as the license plate number. The Guest Registration form the gentleman had typed up and given us also had a space to put in the names of additional guests, but we were never asked that info. He also gave us paperwork listing the wifi password, where to go or call for after hours assistance, the rules, etc. I will say important rules to note are that they do not allow pets, firearm or weapon possession, smoking inside your room, unsanitary living conditions/trashing your room, leaving trash or other debris in common areas, or loitering (among other things that are pretty standard in a hotel). Now on to the room itself. First, I will say the first impression was good. I liked the modern look and feel of the room (the bright teal colored accent wall and the bright yellow and white striped bedspread on the beds really caught my eye). My next impression was, "Wow, this is really small." I was glad we got the 2 full bed room. We saw inside a 1 Queen bed room and it's even smaller. This wouldn't be a problem if you're only going there to sleep and eat, but my toddler and I planned on staying inside the room all week while my husband worked, so you do get a bit of cabin fever in these small rooms. Secondly, let me step back for a moment and point out that, while I liked the overall web design of InTown Suites, it was definitely lacking in detail on their room description. Many times if a potential customer can't get all the info he or she needs from a website, they'll go elsewhere. It would have been nice to see better pictures of what each room looked like, maybe even a video or 360 view like some hotels offer. Also, let us know the square footage of the rooms. We like to know how much space we will have. I am including pictures of the room in my review so that others will not have to wonder like I did. As for the kitchen..I will say, it seems a bit deceptive to state they offer full kitchens. I'm not sure how a kitchen can be considered full when it lacks an oven. The kitchen has a "full-sized" fridge/freezer, but it's a small full-size. I would say it's medium sized. The bottom plastic shelf where you put your larger items was caved in a little, so I had to take care to not put things there that could topple over due to the shelf being uneven.There’s a sink, very small counter space, a 2 burner electric stove (which it took me a few minutes to realize will only turn on after you turn on the timer on the wall next to it..my husband had thought the timer was for a vent fan), a microwave, a 2-door wall cabinet with one shelf, a 2-door cabinet under the sink, and a pantry/closet with one shelf that is designed in a way that you can hang your clothes in there. I'm not really sure if it's supposed to be a pantry or clothes closet or both, but it is in the kitchen area. I used it for both (food storage and hanging up my clothes, with my own hangers I brought, since they provide none). Utensils and cookware are NOT included, so make sure you bring your own, as well as your own dish soap, dish sponge, dish rag, dish drying rack, etc. A sink strainer IS included, as is a medium sized trash can in the kitchen and a small trash can in the bathroom. Make sure you bring extra trash bags. We also brought a small toaster oven and a large 3-drawer Sterilite storage for our eating utensils, ziploc bags, etc. I wish I had brought 2 of the larger 3-drawer storage containers. There is a small 3 drawer dresser that's sufficient for maybe 2 people, but no more than that, depending on how much you have. There is a nightstand in between the 2 beds that doesn't have any drawers, just one shelf with smaller space on top of the shelf and larger space below the shelf. There is a nice flat screen TV that hangs on the wall above the dresser. There's a small round kitchen table and 2 chairs. The nice big picture frame above the table was a nice touch. The bathroom was cute. It had a cute white shower curtain with black birds on it. White walls with a bright yellow accent wall. There were 4 bath towels and 4 wash cloths provided. No hand towels (fortunately I brought my own). There was no storage at all in the bathroom, unless you count the small shelf attached to the mirror, which is enough to hold your toothbrush and toothpaste. Fortunately I brought my own narrow 3 drawer storage that fit perfectly in between the toilet and sink. I wish now we had brought our towel/coat rack that hangs from above the door to hang our towels. There is a towel rack, but it's only big enough for 2 towels. The flooring throughout the place looks nice. Carpet and then faux hardwood flooring in the bathroom and kitchen. The lighting was sufficient. A light in the kitchen, a light above the stove, a light above the dining table, a light and reading lamp above each bed, off to the side. I also liked that above each bed, attached to the light unit, was a wall outlet and a USB charging port. There are also 4 plug in spots behind the nightstand that's in between the 2 beds, 2 spots in the bathroom, 6 spots behind the kitchen table, and some spots behind the dresser. Definitely plenty of electrical outlets.As for the beds...again, the bedspread is cute, but it's very thin. And then under that is just a sheet. No blankets. I'm not sure if they provide one in the winter or not. Each bed has 2 pillows, so bring your own if you like more than that. The mattress is hard and uncomfortable, and there is no box spring. The first night I woke up all night long wishing for the morning so I could get out of bed. I awoke the next day to my body hurting. Fortunately, I'd brought a comforter, so the second night I folded that up and used it as a topper. My body didn't hurt as bad after that. After the first few days my husband had to bust out the queen sized blow up mattress we'd brought from home. There was barely enough room for it - we had to move the table and chairs, move one of the beds over a few inches, and we could barely open the front door, but it was better than my husband waking up every morning with a stiff back and then having to work like that all day. The best thing about the beds is that there is ample storage space under them to stash your suitcase and extra things.Definitely bring along a mattress topper of some sort!! There was a window unit attached through the wall, below the window (if that makes sense) in between the 2 beds that blew cold air sufficiently (we stayed at the end of May when it was warmer and didn't need to use the heat for any reason). The window, which you can open if you'd like (but there is no screen), had a thick curtain sufficient for blocking the light out. My first few days there I kept the curtain closed at all times, which was crummy because I love natural light, but occasionally someone would walk by and I didn't feel comfortable with anyone seeing just me and my small child alone in the room in a big town we weren't familiar with. However, I later realized you couldn't really see inside our room unless you were standing at the window cupping around your eyes and really looking in, so I kept my curtains open after that. On that note, I will say you will often find men walking around the property, either going to their room or to their vehicle, I suppose. I'm sure many of the people who stay there are there on business, usually blue collar work (like my husband). As a woman, I didn't feel 100% comfortable with the men outside, so I tried to stay in my room as much as possible. I'm sure if we had been on the first floor it wouldn't have been much of a problem, because I could have quickly darted to my vehicle, but being on the 2nd (or 3rd) floor and there only being 1 stairwell (that I could see...maybe there is one on each side of the property) and 1 elevator, there are more opportunities to run into someone. Two different times I walked out during the week and two different men spoke to me. One was looking for a light for his cigarette and the other told me my daughter was cute and that he had kids of his own, but it made me a tad uncomfortable. I just felt safer staying inside my room. When we checked in, we were told housekeeping would come one time a week, and that our scheduled day was Wednesday, just 2 days after our check-in. We saw in the paperwork that due to the city of Carrollton rules, we were not allowed to refuse housekeeping service and we would have to leave the room when they came. I didn't really like those rules, because I was afraid the maids might come while my toddler was napping, but what can I say. It turns out they came while we were not in the room, so that was good. The gentleman who checked us in said the maids would make up our beds if there were no personal items on the bed. One of the beds had personal items on it, but mine did not and they did not make it up. I'm guessing because it looked like I had made an attempt to make it up? It's just habit for me to wake up and make up my bed, but theirs are the typical hotel kind where you have to tuck the bedspread into your pillows and I never can do it just right, so I kind of just threw it together. I had hoped they would have made it look nicer, but such is life. In the paperwork given to us at check-in, it stated housekeeping would change your sheets &amp; take out the trash. They did not change our sheets, but I'm assuming it's because we'd only been there 2 nights. That's fine, but they need to change the wording in the paperwork to reflect that fact. They did take out our trash. That was pretty much it. The dumpster was a pretty far walk from our room, so that was a pain having to take out our own trash every day (except for the "cleaning day").There is a laundry room on the property; however, you have to purchase a $2 card inside the office during office hours (remember, they're closed Sunday and only open until 7 PM the other days) to use it. We put in a $5 bill, which paid for the card and $3 worth of laundry room usage, which was enough for us. It costs $1.50 to wash a regular sized load and $1.50 to dry. The laundry room closes at 10 PM. There is a dispenser in there where you can buy soap, but we had brought our own. The clothes seemed to wash and dry well. There is a timer on both so you know how many minutes to set the timer on your phone for to come back. We went on a Friday right at 7 and all the washers (there are about 4 or 5 of them, I believe) were being used, so we had to come back later. The wifi worked OK for the most part, though our last 2 days there it was a bit spotty, maybe because of the rain and/or the fact it was the weekend and more people were using it.Overall, I liked the place as far as looks and location were concerned, for the price ($366.59 after tax for 7 nights, though we only stayed 6). It was cute and modern inside and out, and I never saw one bug at all (major plus). I forgot to mention it often smelled like urine around the stairwell - that was kind of gross. Dogs aren't allowed, but 2 different times I saw 2 different people walking their large dog through there, so maybe that was dog urine I smelled? Changes that could be made are to have more comfortable beds (at least mattress toppers), more storage space and providing cookware and eating utensils (though I do realize this costs money). Definitely some changes to the website to be made, as far as giving a better description of the rooms and better pictures, as well as better customer service...responding promptly to emails (at least responding at all!) and calling the customer as soon as you see they have made a reservation and seeing if they have any questions. This was my first time staying at a place of this type (we usually stay in hotels or motels), so maybe I'm asking too much (in other words, maybe they're all like this?). There ARE nicer extended stay hotels out there (ones that even include cookware, utensils, dish soap, etc.), but you will be paying around $100/night plus in this area. This place is great if you're just looking for something cheap but still semi nice/modern and bug free. Again, just remember to bring a mattress topper! :-)More</t>
   </si>
   <si>
+    <t>Pamela T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d226223-r502943655-InTown_Suites_Carrollton_Addison-Carrollton_Texas.html</t>
   </si>
   <si>
@@ -232,6 +244,9 @@
   </si>
   <si>
     <t>May 2017</t>
+  </si>
+  <si>
+    <t>Pamela S</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d226223-r316440742-InTown_Suites_Carrollton_Addison-Carrollton_Texas.html</t>
@@ -754,34 +769,38 @@
       <c r="A2" t="n">
         <v>36713</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>162737</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M2" t="n">
         <v>2</v>
@@ -800,50 +819,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>36713</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>162738</v>
+      </c>
+      <c r="C3" t="s">
+        <v>51</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="O3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -857,50 +880,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>36713</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>34574</v>
+      </c>
+      <c r="C4" t="s">
+        <v>60</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="J4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="L4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M4" t="n">
         <v>3</v>
       </c>
       <c r="N4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="O4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P4" t="n">
         <v>4</v>
@@ -920,50 +947,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>36713</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>2992</v>
+      </c>
+      <c r="C5" t="s">
+        <v>69</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="J5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="L5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -977,50 +1008,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>36713</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>3204</v>
+      </c>
+      <c r="C6" t="s">
+        <v>76</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="L6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="O6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1040,7 +1075,7 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_457.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_457.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="97">
   <si>
     <t>STR#</t>
   </si>
@@ -144,10 +144,7 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>Hutsite</t>
-  </si>
-  <si>
-    <t>06/14/2018</t>
+    <t>08/24/2018</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d226223-r584672388-InTown_Suites_Carrollton_Addison-Carrollton_Texas.html</t>
@@ -171,9 +168,6 @@
     <t xml:space="preserve">Basic roof over your head, the tax return refund applies to a weekly discounted rate, you get what you pay for; no perks, poor appliances and uncomfortable furnishings. Dish cable is available with limited channels that are basically free with limited paid premium channels. The Carrolton location out-beat Lewisville’s location to the general upkeep and property landscaping and security services for the complex that includes the staff and how they treat people in the Lewisville office. This hotel rates as a must do for financial reasons than by personal preference. </t>
   </si>
   <si>
-    <t>ESSYNZE S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d226223-r524479729-InTown_Suites_Carrollton_Addison-Carrollton_Texas.html</t>
   </si>
   <si>
@@ -198,9 +192,6 @@
     <t>I had the most awful experience my co worker got bit up by bes bugs and fleas we took pictures and showed it to the General Manager Joni Hereing and she was not empathetic like it was her way of living. We bleached the room down and alcoholed the beds, went to the laundry mat washed all the sheets and comforters twice. We lifted the bed and there were bugs and bug debris. They sent someone to check after we did all this due to the fact that they are closes Sat-Sun, So "Hello" quite naturally it would not be anything there. My Co-Worker complained and asked well could she be compensated and then thats when they kicked us out saying someone booked the room for the month. We went to another location on W. Trinity which is the best one and they could not rent us a room due to the incident. Make in worst ppl are smoking in the stairwell that smell like piss and they allow dogs in all the rooms. Its pretty sad how Management has allowed this establishment to be run down they need to fire the whole staff and start from scatch!!More</t>
   </si>
   <si>
-    <t>Tiffany D</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d226223-r505273329-InTown_Suites_Carrollton_Addison-Carrollton_Texas.html</t>
   </si>
   <si>
@@ -225,9 +216,6 @@
     <t>My husband had work to do in the metroplex for a week and InTown Suites was the cheapest option for him, my 18-year-old stepson, my 3-year-old daughter, and myself. I went to their website, entered in the date we wanted to stay, and found that the one we wanted in Plano wasn't available, so we chose the one in Carrollton, on Westgrove. We initially requested a regular queen room. but then a few minutes later I saw a queen DELUXE room, so I also reserved that. It didn't ask for payment info, just contact info. We were immediately sent an email confirming our reservation. Inside the email we were given a number to call or email address to email if we needed to change or cancel our reservation. I immediately sent an email to the address specified with all the info needed requesting to cancel the one reservation but keep the other. I also asked questions about our room, since nowhere on the website did it specify exactly what we could expect in the room. I was mainly wanting to know square footage and whether or not the kitchen included utensils and cookware like some extended stay hotels offer. I also wanted to know what the difference was between a Queen and Queen Deluxe. After 2 days of no response, I emailed again. We never did receive an email back from them, which is very disappointing to me. In today's...My husband had work to do in the metroplex for a week and InTown Suites was the cheapest option for him, my 18-year-old stepson, my 3-year-old daughter, and myself. I went to their website, entered in the date we wanted to stay, and found that the one we wanted in Plano wasn't available, so we chose the one in Carrollton, on Westgrove. We initially requested a regular queen room. but then a few minutes later I saw a queen DELUXE room, so I also reserved that. It didn't ask for payment info, just contact info. We were immediately sent an email confirming our reservation. Inside the email we were given a number to call or email address to email if we needed to change or cancel our reservation. I immediately sent an email to the address specified with all the info needed requesting to cancel the one reservation but keep the other. I also asked questions about our room, since nowhere on the website did it specify exactly what we could expect in the room. I was mainly wanting to know square footage and whether or not the kitchen included utensils and cookware like some extended stay hotels offer. I also wanted to know what the difference was between a Queen and Queen Deluxe. After 2 days of no response, I emailed again. We never did receive an email back from them, which is very disappointing to me. In today's day and age where most people communicate electronically, and the fact they gave their email address as an option for contact, there is no excuse for the lack of response. My husband finally called and spoke with someone, who said (1) she did not know the square footage of the rooms and (2) they saw we had made 2 reservations so they just cancelled one of them, and the one they cancelled was the last reservation we'd made, the one we wanted. Mistake number two. Why wouldn't they have called us first and asked which one to cancel??! They had our number. Absolutely no excuse for that. At this point, I was put off to the point I didn't want to stay there, but my husband insisted since it was the cheapest. Actually, Budget Suites was a bit cheaper, but I didn't like the poor design of their website, the fact I received an error message when trying to contact them through their form online, and the lady who answered the phone when my husband called was very brief with him and at first unwilling to give us a price. So..InTown Suites it was! I checked one more time the night before our reservation and saw a 2 full bed room had opened up (which is what we really wanted), so I reserved it. Their office was already closed, so I knew they wouldn't see it until they returned the next day.The reservation email stated that our room reservation would be held until 4:00 PM the date of arrival, and that if we couldn’t check-in before 4:00PM, we must call the Property to hold the reservation. The email also stated that normal check-in business hours were generally Monday - Saturday 11AM to 7PM. I wanted to arrive right at 11 AM when they opened so they didn't give our room to anyone else. After a 2.5 hour drive with a toddler, I didn't want to have to stress about having to find another place to stay. However, we ran into some car trouble and knew we wouldn't arrive until after noon, so I called them around 10:30 AM that day (Monday) and left a message just stating we were on our way and would definitely arrive before 4 PM. I also gave my phone number to call if they had any questions.We arrived at 12:45 PM. I immediately liked the exterior look of the property. You could tell it had been recently remodeled. It looked nice. I liked all the trees in their "courtyard area." The place seemed to have a warm, welcoming feel to it. There was plenty of parking in the front and back.We went inside the office. The man working behind the desk (a friendly black gentleman with glasses..I believe it said "Property Manager" on his name tag) stated he saw 3 reservations (so they hadn't actually cancelled the one they said they had cancelled??). I said I wanted the one with 2 full beds. He stated the people who had been staying in it were late checking out, so it would be about 45 minutes to an hour before it would be ready. I could have swore he said housekeeping was working on it right then. We walked next door to Braum's for an hour, then returned at 1:45 PM. The same gentleman apologized and stated it still wasn't ready, but that they were working on it and there were certain things they needed to do to the room to bring it up to standard (or something along those lines), and it would be another 20 minutes or so. We waited outside the office about 5-10 minutes when the same gentleman stepped out and said housekeeping was working on it now and it should be ready in 15-20 minutes. Seconds before that we had seen 2 housekeeping ladies walk by with a cleaning cart. So...they hadn't actually been working on our room at all..not until that point. I'm not sure why we couldn't have been told from the get-go that our room would not be available until it was cleaned, and then we could have been asked for a good contact number where we could have been called as soon as it was ready. That way we could have gone and run some errands or something, rather than waiting around the property for 1.5 hour. Also, it would have been nice if someone could have called us and let us know the status.  They could have let us know they received my voice message that morning and that our room should be available such and such o'clock. That way we wouldn't have rushed there. So....just be aware when staying at this property, your room may or may not be available when you arrive. The gentleman also stated that once housekeeping was finished cleaning the room, we were to go look at the room to make sure it was what we wanted before going back to him to pay. We waited about 20 minutes, saw they had finished cleaning, then went back to the office. The gentleman had me give him my driver's license while we went to the room to look (standard protocol). We took a look at the room, made sure everything worked, then went back to the office to pay. You also have to provide them with the vehicle that will be staying on their property, as well as the license plate number. The Guest Registration form the gentleman had typed up and given us also had a space to put in the names of additional guests, but we were never asked that info. He also gave us paperwork listing the wifi password, where to go or call for after hours assistance, the rules, etc. I will say important rules to note are that they do not allow pets, firearm or weapon possession, smoking inside your room, unsanitary living conditions/trashing your room, leaving trash or other debris in common areas, or loitering (among other things that are pretty standard in a hotel). Now on to the room itself. First, I will say the first impression was good. I liked the modern look and feel of the room (the bright teal colored accent wall and the bright yellow and white striped bedspread on the beds really caught my eye). My next impression was, "Wow, this is really small." I was glad we got the 2 full bed room. We saw inside a 1 Queen bed room and it's even smaller. This wouldn't be a problem if you're only going there to sleep and eat, but my toddler and I planned on staying inside the room all week while my husband worked, so you do get a bit of cabin fever in these small rooms. Secondly, let me step back for a moment and point out that, while I liked the overall web design of InTown Suites, it was definitely lacking in detail on their room description. Many times if a potential customer can't get all the info he or she needs from a website, they'll go elsewhere. It would have been nice to see better pictures of what each room looked like, maybe even a video or 360 view like some hotels offer. Also, let us know the square footage of the rooms. We like to know how much space we will have. I am including pictures of the room in my review so that others will not have to wonder like I did. As for the kitchen..I will say, it seems a bit deceptive to state they offer full kitchens. I'm not sure how a kitchen can be considered full when it lacks an oven. The kitchen has a "full-sized" fridge/freezer, but it's a small full-size. I would say it's medium sized. The bottom plastic shelf where you put your larger items was caved in a little, so I had to take care to not put things there that could topple over due to the shelf being uneven.There’s a sink, very small counter space, a 2 burner electric stove (which it took me a few minutes to realize will only turn on after you turn on the timer on the wall next to it..my husband had thought the timer was for a vent fan), a microwave, a 2-door wall cabinet with one shelf, a 2-door cabinet under the sink, and a pantry/closet with one shelf that is designed in a way that you can hang your clothes in there. I'm not really sure if it's supposed to be a pantry or clothes closet or both, but it is in the kitchen area. I used it for both (food storage and hanging up my clothes, with my own hangers I brought, since they provide none). Utensils and cookware are NOT included, so make sure you bring your own, as well as your own dish soap, dish sponge, dish rag, dish drying rack, etc. A sink strainer IS included, as is a medium sized trash can in the kitchen and a small trash can in the bathroom. Make sure you bring extra trash bags. We also brought a small toaster oven and a large 3-drawer Sterilite storage for our eating utensils, ziploc bags, etc. I wish I had brought 2 of the larger 3-drawer storage containers. There is a small 3 drawer dresser that's sufficient for maybe 2 people, but no more than that, depending on how much you have. There is a nightstand in between the 2 beds that doesn't have any drawers, just one shelf with smaller space on top of the shelf and larger space below the shelf. There is a nice flat screen TV that hangs on the wall above the dresser. There's a small round kitchen table and 2 chairs. The nice big picture frame above the table was a nice touch. The bathroom was cute. It had a cute white shower curtain with black birds on it. White walls with a bright yellow accent wall. There were 4 bath towels and 4 wash cloths provided. No hand towels (fortunately I brought my own). There was no storage at all in the bathroom, unless you count the small shelf attached to the mirror, which is enough to hold your toothbrush and toothpaste. Fortunately I brought my own narrow 3 drawer storage that fit perfectly in between the toilet and sink. I wish now we had brought our towel/coat rack that hangs from above the door to hang our towels. There is a towel rack, but it's only big enough for 2 towels. The flooring throughout the place looks nice. Carpet and then faux hardwood flooring in the bathroom and kitchen. The lighting was sufficient. A light in the kitchen, a light above the stove, a light above the dining table, a light and reading lamp above each bed, off to the side. I also liked that above each bed, attached to the light unit, was a wall outlet and a USB charging port. There are also 4 plug in spots behind the nightstand that's in between the 2 beds, 2 spots in the bathroom, 6 spots behind the kitchen table, and some spots behind the dresser. Definitely plenty of electrical outlets.As for the beds...again, the bedspread is cute, but it's very thin. And then under that is just a sheet. No blankets. I'm not sure if they provide one in the winter or not. Each bed has 2 pillows, so bring your own if you like more than that. The mattress is hard and uncomfortable, and there is no box spring. The first night I woke up all night long wishing for the morning so I could get out of bed. I awoke the next day to my body hurting. Fortunately, I'd brought a comforter, so the second night I folded that up and used it as a topper. My body didn't hurt as bad after that. After the first few days my husband had to bust out the queen sized blow up mattress we'd brought from home. There was barely enough room for it - we had to move the table and chairs, move one of the beds over a few inches, and we could barely open the front door, but it was better than my husband waking up every morning with a stiff back and then having to work like that all day. The best thing about the beds is that there is ample storage space under them to stash your suitcase and extra things.Definitely bring along a mattress topper of some sort!! There was a window unit attached through the wall, below the window (if that makes sense) in between the 2 beds that blew cold air sufficiently (we stayed at the end of May when it was warmer and didn't need to use the heat for any reason). The window, which you can open if you'd like (but there is no screen), had a thick curtain sufficient for blocking the light out. My first few days there I kept the curtain closed at all times, which was crummy because I love natural light, but occasionally someone would walk by and I didn't feel comfortable with anyone seeing just me and my small child alone in the room in a big town we weren't familiar with. However, I later realized you couldn't really see inside our room unless you were standing at the window cupping around your eyes and really looking in, so I kept my curtains open after that. On that note, I will say you will often find men walking around the property, either going to their room or to their vehicle, I suppose. I'm sure many of the people who stay there are there on business, usually blue collar work (like my husband). As a woman, I didn't feel 100% comfortable with the men outside, so I tried to stay in my room as much as possible. I'm sure if we had been on the first floor it wouldn't have been much of a problem, because I could have quickly darted to my vehicle, but being on the 2nd (or 3rd) floor and there only being 1 stairwell (that I could see...maybe there is one on each side of the property) and 1 elevator, there are more opportunities to run into someone. Two different times I walked out during the week and two different men spoke to me. One was looking for a light for his cigarette and the other told me my daughter was cute and that he had kids of his own, but it made me a tad uncomfortable. I just felt safer staying inside my room. When we checked in, we were told housekeeping would come one time a week, and that our scheduled day was Wednesday, just 2 days after our check-in. We saw in the paperwork that due to the city of Carrollton rules, we were not allowed to refuse housekeeping service and we would have to leave the room when they came. I didn't really like those rules, because I was afraid the maids might come while my toddler was napping, but what can I say. It turns out they came while we were not in the room, so that was good. The gentleman who checked us in said the maids would make up our beds if there were no personal items on the bed. One of the beds had personal items on it, but mine did not and they did not make it up. I'm guessing because it looked like I had made an attempt to make it up? It's just habit for me to wake up and make up my bed, but theirs are the typical hotel kind where you have to tuck the bedspread into your pillows and I never can do it just right, so I kind of just threw it together. I had hoped they would have made it look nicer, but such is life. In the paperwork given to us at check-in, it stated housekeeping would change your sheets &amp; take out the trash. They did not change our sheets, but I'm assuming it's because we'd only been there 2 nights. That's fine, but they need to change the wording in the paperwork to reflect that fact. They did take out our trash. That was pretty much it. The dumpster was a pretty far walk from our room, so that was a pain having to take out our own trash every day (except for the "cleaning day").There is a laundry room on the property; however, you have to purchase a $2 card inside the office during office hours (remember, they're closed Sunday and only open until 7 PM the other days) to use it. We put in a $5 bill, which paid for the card and $3 worth of laundry room usage, which was enough for us. It costs $1.50 to wash a regular sized load and $1.50 to dry. The laundry room closes at 10 PM. There is a dispenser in there where you can buy soap, but we had brought our own. The clothes seemed to wash and dry well. There is a timer on both so you know how many minutes to set the timer on your phone for to come back. We went on a Friday right at 7 and all the washers (there are about 4 or 5 of them, I believe) were being used, so we had to come back later. The wifi worked OK for the most part, though our last 2 days there it was a bit spotty, maybe because of the rain and/or the fact it was the weekend and more people were using it.Overall, I liked the place as far as looks and location were concerned, for the price ($366.59 after tax for 7 nights, though we only stayed 6). It was cute and modern inside and out, and I never saw one bug at all (major plus). I forgot to mention it often smelled like urine around the stairwell - that was kind of gross. Dogs aren't allowed, but 2 different times I saw 2 different people walking their large dog through there, so maybe that was dog urine I smelled? Changes that could be made are to have more comfortable beds (at least mattress toppers), more storage space and providing cookware and eating utensils (though I do realize this costs money). Definitely some changes to the website to be made, as far as giving a better description of the rooms and better pictures, as well as better customer service...responding promptly to emails (at least responding at all!) and calling the customer as soon as you see they have made a reservation and seeing if they have any questions. This was my first time staying at a place of this type (we usually stay in hotels or motels), so maybe I'm asking too much (in other words, maybe they're all like this?). There ARE nicer extended stay hotels out there (ones that even include cookware, utensils, dish soap, etc.), but you will be paying around $100/night plus in this area. This place is great if you're just looking for something cheap but still semi nice/modern and bug free. Again, just remember to bring a mattress topper! :-)More</t>
   </si>
   <si>
-    <t>Pamela T</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d226223-r502943655-InTown_Suites_Carrollton_Addison-Carrollton_Texas.html</t>
   </si>
   <si>
@@ -246,9 +234,6 @@
     <t>May 2017</t>
   </si>
   <si>
-    <t>Pamela S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d226223-r316440742-InTown_Suites_Carrollton_Addison-Carrollton_Texas.html</t>
   </si>
   <si>
@@ -268,6 +253,60 @@
   </si>
   <si>
     <t>I have lived at the InTown Suite in Carrollton for 10 months. I pay my room on time or actually 2 or 3 weeks in advance.  I didn't tripm when  Rob locked my son outside in the Texas summer heat for 2 hours until I got here because he refuse to take my payment over the phone or let me him until I got here because I had a new card.  Or the time the courtesy guy told me that my son could not have his bike outside and people have been locking bike up against trees since we have been here,  I didn't trip when I called Rob in advance and told him that my payment wouldn't go through online and after I got off work went downstairs with my laptop, showed him that it wasn't working and he still charged me a $25.00 late fee. But the person that comes into my place while i'm at work that brakes my things or steal them is out of hand.  First time, it was a lottery ticket on 2 different time that I left out not thinking, an umbrella and today I came home and my laptop one of the keys is missing and they moved it to clean. no note not even the missing key to get fixed, you dropped my laptop.  I am paying the now charge of $269.99 a week for you to come in and steal...I have lived at the InTown Suite in Carrollton for 10 months. I pay my room on time or actually 2 or 3 weeks in advance.  I didn't tripm when  Rob locked my son outside in the Texas summer heat for 2 hours until I got here because he refuse to take my payment over the phone or let me him until I got here because I had a new card.  Or the time the courtesy guy told me that my son could not have his bike outside and people have been locking bike up against trees since we have been here,  I didn't trip when I called Rob in advance and told him that my payment wouldn't go through online and after I got off work went downstairs with my laptop, showed him that it wasn't working and he still charged me a $25.00 late fee. But the person that comes into my place while i'm at work that brakes my things or steal them is out of hand.  First time, it was a lottery ticket on 2 different time that I left out not thinking, an umbrella and today I came home and my laptop one of the keys is missing and they moved it to clean. no note not even the missing key to get fixed, you dropped my laptop.  I am paying the now charge of $269.99 a week for you to come in and steal and brake my things. Of course, no one will no anything and of course this didn't happen on your watch so why bother.  Nothing makes me want to flip out than someone insult my intelligence.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d226223-r278159525-InTown_Suites_Carrollton_Addison-Carrollton_Texas.html</t>
+  </si>
+  <si>
+    <t>278159525</t>
+  </si>
+  <si>
+    <t>06/05/2015</t>
+  </si>
+  <si>
+    <t>Don't stay here</t>
+  </si>
+  <si>
+    <t>Not very friendly staff, rude in fact. Fail to clean, do not provide towels, toilet paper, trash pick up or any service to guests. They claim to be "renovated" which means they painted the rooms. Every thing from the carpet to the ceiling is dated and worn down.</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d226223-r244845513-InTown_Suites_Carrollton_Addison-Carrollton_Texas.html</t>
+  </si>
+  <si>
+    <t>244845513</t>
+  </si>
+  <si>
+    <t>12/17/2014</t>
+  </si>
+  <si>
+    <t>Stay away</t>
+  </si>
+  <si>
+    <t>When you book on location they tell ypu one and when you leave it it something different to whay suits their needs. If you want a deposit back for the phone that yoy never use, you better make sure the room is cleaner than you got when you checked in. The office would rather argue with you then hear what you have to say......shady business practices stay away from the Carrollton location.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d226223-r200380358-InTown_Suites_Carrollton_Addison-Carrollton_Texas.html</t>
+  </si>
+  <si>
+    <t>200380358</t>
+  </si>
+  <si>
+    <t>04/08/2014</t>
+  </si>
+  <si>
+    <t>BASIC accommodations</t>
+  </si>
+  <si>
+    <t>Friendly staff.  Remember to bring your own radio, blanket, dishes, hangers, mattress pad, TP and soap.13% tax adds to bill.  Must pay extra if you want a bathtub.Can walk to nearby restaurants. Quiet, good location</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
   </si>
 </sst>
 </file>
@@ -769,38 +808,34 @@
       <c r="A2" t="n">
         <v>36713</v>
       </c>
-      <c r="B2" t="n">
-        <v>162737</v>
-      </c>
-      <c r="C2" t="s">
-        <v>42</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" t="s">
         <v>43</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>44</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>45</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>46</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>47</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>48</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>49</v>
-      </c>
-      <c r="L2" t="s">
-        <v>50</v>
       </c>
       <c r="M2" t="n">
         <v>2</v>
@@ -819,54 +854,50 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>36713</v>
       </c>
-      <c r="B3" t="n">
-        <v>162738</v>
-      </c>
-      <c r="C3" t="s">
-        <v>51</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" t="s">
         <v>52</v>
       </c>
-      <c r="G3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>53</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>54</v>
-      </c>
-      <c r="K3" t="s">
-        <v>55</v>
-      </c>
-      <c r="L3" t="s">
-        <v>56</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="O3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -880,54 +911,50 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>36713</v>
       </c>
-      <c r="B4" t="n">
-        <v>34574</v>
-      </c>
-      <c r="C4" t="s">
-        <v>60</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4" t="s">
         <v>61</v>
       </c>
-      <c r="G4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>62</v>
-      </c>
-      <c r="J4" t="s">
-        <v>63</v>
-      </c>
-      <c r="K4" t="s">
-        <v>64</v>
-      </c>
-      <c r="L4" t="s">
-        <v>65</v>
       </c>
       <c r="M4" t="n">
         <v>3</v>
       </c>
       <c r="N4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="P4" t="n">
         <v>4</v>
@@ -947,54 +974,50 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>36713</v>
       </c>
-      <c r="B5" t="n">
-        <v>2992</v>
-      </c>
-      <c r="C5" t="s">
-        <v>69</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" t="s">
         <v>70</v>
-      </c>
-      <c r="G5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I5" t="s">
-        <v>71</v>
-      </c>
-      <c r="J5" t="s">
-        <v>72</v>
-      </c>
-      <c r="K5" t="s">
-        <v>73</v>
-      </c>
-      <c r="L5" t="s">
-        <v>74</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="O5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1008,54 +1031,50 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>36713</v>
       </c>
-      <c r="B6" t="n">
-        <v>3204</v>
-      </c>
-      <c r="C6" t="s">
-        <v>76</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F6" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" t="s">
         <v>45</v>
       </c>
-      <c r="H6" t="s">
-        <v>46</v>
-      </c>
       <c r="I6" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="J6" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="K6" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="L6" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="O6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1075,7 +1094,200 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>36713</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" t="s">
         <v>83</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>84</v>
+      </c>
+      <c r="O7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="n">
+        <v>3</v>
+      </c>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>36713</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J8" t="s">
+        <v>87</v>
+      </c>
+      <c r="K8" t="s">
+        <v>88</v>
+      </c>
+      <c r="L8" t="s">
+        <v>89</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s"/>
+      <c r="O8" t="s"/>
+      <c r="P8" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1</v>
+      </c>
+      <c r="S8" t="n">
+        <v>3</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>36713</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" t="s">
+        <v>91</v>
+      </c>
+      <c r="J9" t="s">
+        <v>92</v>
+      </c>
+      <c r="K9" t="s">
+        <v>93</v>
+      </c>
+      <c r="L9" t="s">
+        <v>94</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>95</v>
+      </c>
+      <c r="O9" t="s">
+        <v>96</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" t="n">
+        <v>4</v>
+      </c>
+      <c r="S9" t="n">
+        <v>4</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
